--- a/Code/Results/Cases/Case_4_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_120/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.87935821216032</v>
+        <v>18.83343114763041</v>
       </c>
       <c r="C2">
-        <v>11.49633652207532</v>
+        <v>6.977096061341165</v>
       </c>
       <c r="D2">
-        <v>8.383755795892515</v>
+        <v>13.15180704825282</v>
       </c>
       <c r="E2">
-        <v>7.698668745779252</v>
+        <v>13.26763969818576</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.106766205017937</v>
+        <v>3.697519966356513</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.61510325123916</v>
+        <v>28.55227858295811</v>
       </c>
       <c r="J2">
-        <v>5.237845832942983</v>
+        <v>8.189554730806986</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.75003019600712</v>
+        <v>12.63843372616258</v>
       </c>
       <c r="M2">
-        <v>13.27062415529305</v>
+        <v>18.35963301309227</v>
       </c>
       <c r="N2">
-        <v>13.04730394855111</v>
+        <v>19.89982915868515</v>
       </c>
       <c r="O2">
-        <v>20.09111199097076</v>
+        <v>30.57403029773107</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.65110403671878</v>
+        <v>18.51092996293036</v>
       </c>
       <c r="C3">
-        <v>10.81396431589664</v>
+        <v>6.61960954460661</v>
       </c>
       <c r="D3">
-        <v>8.273780313749775</v>
+        <v>13.16736052531826</v>
       </c>
       <c r="E3">
-        <v>7.764643269420528</v>
+        <v>13.29850883145722</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.112921732687813</v>
+        <v>3.699902617033609</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.69418772989851</v>
+        <v>28.65156297293163</v>
       </c>
       <c r="J3">
-        <v>5.215574665490156</v>
+        <v>8.184686054880942</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.642559608724916</v>
+        <v>12.6466073225927</v>
       </c>
       <c r="M3">
-        <v>12.75794577798487</v>
+        <v>18.2976834503562</v>
       </c>
       <c r="N3">
-        <v>13.25077436347826</v>
+        <v>19.96199452755652</v>
       </c>
       <c r="O3">
-        <v>19.89556538347991</v>
+        <v>30.6401517173179</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.86024781604783</v>
+        <v>18.31329158645985</v>
       </c>
       <c r="C4">
-        <v>10.37293983153025</v>
+        <v>6.388569354170738</v>
       </c>
       <c r="D4">
-        <v>8.21038620153654</v>
+        <v>13.17905421553124</v>
       </c>
       <c r="E4">
-        <v>7.807315736879056</v>
+        <v>13.31861325287</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.116820117101589</v>
+        <v>3.701444170316042</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.75677074566918</v>
+        <v>28.71778242412224</v>
       </c>
       <c r="J4">
-        <v>5.201918367376241</v>
+        <v>8.18166812583511</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.579143380578928</v>
+        <v>12.65323051135943</v>
       </c>
       <c r="M4">
-        <v>12.4376000328613</v>
+        <v>18.26220719989518</v>
       </c>
       <c r="N4">
-        <v>13.37868645788549</v>
+        <v>20.00201850220244</v>
       </c>
       <c r="O4">
-        <v>19.79159098343165</v>
+        <v>30.68716754912372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.52890024632835</v>
+        <v>18.23295099683034</v>
       </c>
       <c r="C5">
-        <v>10.18770651386069</v>
+        <v>6.291569463587981</v>
       </c>
       <c r="D5">
-        <v>8.185594266167856</v>
+        <v>13.18435869668625</v>
       </c>
       <c r="E5">
-        <v>7.825245907004969</v>
+        <v>13.32709594916721</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.118439385282346</v>
+        <v>3.702092193282865</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.78565114313832</v>
+        <v>28.74608808264416</v>
       </c>
       <c r="J5">
-        <v>5.1963559333845</v>
+        <v>8.180431156597766</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.553960519587431</v>
+        <v>12.65633370229695</v>
       </c>
       <c r="M5">
-        <v>12.30584388492413</v>
+        <v>18.24840428268873</v>
       </c>
       <c r="N5">
-        <v>13.43158073240696</v>
+        <v>20.01879621296351</v>
       </c>
       <c r="O5">
-        <v>19.75317008663356</v>
+        <v>30.70793735907537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.47333829692925</v>
+        <v>18.21962554425965</v>
       </c>
       <c r="C6">
-        <v>10.15661695200472</v>
+        <v>6.275292392479128</v>
       </c>
       <c r="D6">
-        <v>8.181540535230605</v>
+        <v>13.18527207027461</v>
       </c>
       <c r="E6">
-        <v>7.828255770641947</v>
+        <v>13.32852202750157</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.118710135839628</v>
+        <v>3.702200996412865</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.79064641150145</v>
+        <v>28.75086793596123</v>
       </c>
       <c r="J6">
-        <v>5.195432398217246</v>
+        <v>8.180225328751961</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.549819137277947</v>
+        <v>12.65687341589309</v>
       </c>
       <c r="M6">
-        <v>12.28389844307554</v>
+        <v>18.2461520940109</v>
       </c>
       <c r="N6">
-        <v>13.44041079701582</v>
+        <v>20.02161042218464</v>
       </c>
       <c r="O6">
-        <v>19.74702586229064</v>
+        <v>30.71148334162839</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.85581561007042</v>
+        <v>18.31220714341778</v>
       </c>
       <c r="C7">
-        <v>10.37046397680664</v>
+        <v>6.38727263761006</v>
       </c>
       <c r="D7">
-        <v>8.210047629080512</v>
+        <v>13.17912357028911</v>
       </c>
       <c r="E7">
-        <v>7.807555363871992</v>
+        <v>13.31872647849835</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.116841830063652</v>
+        <v>3.701452829414943</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.75714675625487</v>
+        <v>28.71815881881603</v>
       </c>
       <c r="J7">
-        <v>5.201843342366807</v>
+        <v>8.181651472488552</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.578801067671502</v>
+        <v>12.65327072466063</v>
       </c>
       <c r="M7">
-        <v>12.43582777377165</v>
+        <v>18.26201838846197</v>
       </c>
       <c r="N7">
-        <v>13.3793966691859</v>
+        <v>20.00224287711166</v>
       </c>
       <c r="O7">
-        <v>19.79105696881607</v>
+        <v>30.68744114168086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.46355674843203</v>
+        <v>18.72221582471442</v>
       </c>
       <c r="C8">
-        <v>11.26564413154822</v>
+        <v>6.856258970959401</v>
       </c>
       <c r="D8">
-        <v>8.34498117251785</v>
+        <v>13.15672505345237</v>
       </c>
       <c r="E8">
-        <v>7.720965544848528</v>
+        <v>13.27804494428261</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.108864426602875</v>
+        <v>3.698325230170232</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.63936953068791</v>
+        <v>28.58541950786331</v>
       </c>
       <c r="J8">
-        <v>5.230161697909325</v>
+        <v>8.187881957567496</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.712448929727627</v>
+        <v>12.64091939799592</v>
       </c>
       <c r="M8">
-        <v>13.09511128504161</v>
+        <v>18.3377474100549</v>
       </c>
       <c r="N8">
-        <v>13.11685398172984</v>
+        <v>19.92087976539213</v>
       </c>
       <c r="O8">
-        <v>20.02029198196359</v>
+        <v>30.59549531301657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.32022657647989</v>
+        <v>19.52477817567895</v>
       </c>
       <c r="C9">
-        <v>12.84554124823802</v>
+        <v>7.682519224576851</v>
       </c>
       <c r="D9">
-        <v>8.642150765232124</v>
+        <v>13.12980263299086</v>
       </c>
       <c r="E9">
-        <v>7.568500069508628</v>
+        <v>13.20736938394323</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.094127764025653</v>
+        <v>3.692812732967951</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.52659317151609</v>
+        <v>28.36691174251039</v>
       </c>
       <c r="J9">
-        <v>5.285938263436293</v>
+        <v>8.199872202923718</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.994318589062699</v>
+        <v>12.62939713319671</v>
       </c>
       <c r="M9">
-        <v>14.33676909513842</v>
+        <v>18.50611025902711</v>
       </c>
       <c r="N9">
-        <v>12.62473095233533</v>
+        <v>19.77597618335007</v>
       </c>
       <c r="O9">
-        <v>20.60140771244568</v>
+        <v>30.46623559705564</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.30318450580248</v>
+        <v>20.10770696436656</v>
       </c>
       <c r="C10">
-        <v>13.89931405955568</v>
+        <v>8.230733827700053</v>
       </c>
       <c r="D10">
-        <v>8.879961477376835</v>
+        <v>13.12037004322059</v>
       </c>
       <c r="E10">
-        <v>7.467316362821033</v>
+        <v>13.16095171797371</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.083800132775406</v>
+        <v>3.689137038720172</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.52554827107418</v>
+        <v>28.2319481538627</v>
       </c>
       <c r="J10">
-        <v>5.327220650133388</v>
+        <v>8.208541603207566</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.212636827122711</v>
+        <v>12.62862622417773</v>
       </c>
       <c r="M10">
-        <v>15.20978394007658</v>
+        <v>18.64125870159048</v>
       </c>
       <c r="N10">
-        <v>12.27567304745401</v>
+        <v>19.67835720013046</v>
       </c>
       <c r="O10">
-        <v>21.11335227017195</v>
+        <v>30.40254883499279</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.18060356206706</v>
+        <v>20.37026737081575</v>
       </c>
       <c r="C11">
-        <v>14.35568749295426</v>
+        <v>8.467088343658686</v>
       </c>
       <c r="D11">
-        <v>8.992281366703498</v>
+        <v>13.11831971549927</v>
       </c>
       <c r="E11">
-        <v>7.423706749969257</v>
+        <v>13.14102252982238</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.07919755695542</v>
+        <v>3.687545289093014</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.54501617841996</v>
+        <v>28.17612323030873</v>
       </c>
       <c r="J11">
-        <v>5.346105426757097</v>
+        <v>8.212454974764297</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.314220257265701</v>
+        <v>12.62993471563773</v>
       </c>
       <c r="M11">
-        <v>15.59712700890528</v>
+        <v>18.70507753167107</v>
       </c>
       <c r="N11">
-        <v>12.11928409342862</v>
+        <v>19.63584882996004</v>
       </c>
       <c r="O11">
-        <v>21.36558276843558</v>
+        <v>30.38039608368004</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.50616607884699</v>
+        <v>20.46922342627746</v>
       </c>
       <c r="C12">
-        <v>14.52522510191723</v>
+        <v>8.554699926230201</v>
       </c>
       <c r="D12">
-        <v>9.035400371865707</v>
+        <v>13.11786474904628</v>
       </c>
       <c r="E12">
-        <v>7.407547692877535</v>
+        <v>13.13364583551739</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.077467290458593</v>
+        <v>3.686954022290878</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.55544008002352</v>
+        <v>28.15578656504951</v>
       </c>
       <c r="J12">
-        <v>5.353275230876026</v>
+        <v>8.213932460474025</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.352999746190459</v>
+        <v>12.6306676447977</v>
       </c>
       <c r="M12">
-        <v>15.74231164138466</v>
+        <v>18.72956690025342</v>
       </c>
       <c r="N12">
-        <v>12.06038247876748</v>
+        <v>19.62002369939533</v>
       </c>
       <c r="O12">
-        <v>21.46394082775953</v>
+        <v>30.3729895527885</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.43634687766652</v>
+        <v>20.44793380905476</v>
       </c>
       <c r="C13">
-        <v>14.48885759242745</v>
+        <v>8.535915521010178</v>
       </c>
       <c r="D13">
-        <v>9.02608800428805</v>
+        <v>13.11794845107326</v>
       </c>
       <c r="E13">
-        <v>7.411011926727554</v>
+        <v>13.13522698401924</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.077839391101684</v>
+        <v>3.687080851899096</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.55305641110473</v>
+        <v>28.16013068417341</v>
       </c>
       <c r="J13">
-        <v>5.351730201941288</v>
+        <v>8.213614455091065</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.344634224541583</v>
+        <v>12.63049925491093</v>
       </c>
       <c r="M13">
-        <v>15.71111114154297</v>
+        <v>18.72427855490248</v>
       </c>
       <c r="N13">
-        <v>12.07305420416857</v>
+        <v>19.62341985210523</v>
       </c>
       <c r="O13">
-        <v>21.44263022446707</v>
+        <v>30.37454097338571</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.2075215244735</v>
+        <v>20.37841848205073</v>
       </c>
       <c r="C14">
-        <v>14.36970104160935</v>
+        <v>8.474334176693082</v>
       </c>
       <c r="D14">
-        <v>8.995817101437204</v>
+        <v>13.11827584760024</v>
       </c>
       <c r="E14">
-        <v>7.422370177322617</v>
+        <v>13.14041223968901</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.079054960406125</v>
+        <v>3.687496415191259</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.54581153037881</v>
+        <v>28.1744340157108</v>
       </c>
       <c r="J14">
-        <v>5.34669489822238</v>
+        <v>8.212576617365704</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.31740449249132</v>
+        <v>12.62999026261518</v>
       </c>
       <c r="M14">
-        <v>15.60910179983209</v>
+        <v>18.70708590273969</v>
       </c>
       <c r="N14">
-        <v>12.11443196920824</v>
+        <v>19.63454144518546</v>
       </c>
       <c r="O14">
-        <v>21.37361740627553</v>
+        <v>30.37976705002763</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.06648971667322</v>
+        <v>20.33577444491506</v>
       </c>
       <c r="C15">
-        <v>14.29628779173834</v>
+        <v>8.436367164121915</v>
       </c>
       <c r="D15">
-        <v>8.977351337678726</v>
+        <v>13.11851822495736</v>
       </c>
       <c r="E15">
-        <v>7.429373883446725</v>
+        <v>13.14361048865205</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.079801142190167</v>
+        <v>3.687752454856486</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.54177678674459</v>
+        <v>28.18329985425577</v>
       </c>
       <c r="J15">
-        <v>5.343613152599762</v>
+        <v>8.211940334131063</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.300765730977291</v>
+        <v>12.62970937492333</v>
       </c>
       <c r="M15">
-        <v>15.54642136691076</v>
+        <v>18.69659649691399</v>
       </c>
       <c r="N15">
-        <v>12.13981787581563</v>
+        <v>19.64138911160795</v>
       </c>
       <c r="O15">
-        <v>21.33171720062308</v>
+        <v>30.38309613317479</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.24490145827285</v>
+        <v>20.09048726690601</v>
       </c>
       <c r="C16">
-        <v>13.86902829440015</v>
+        <v>8.215023745175031</v>
       </c>
       <c r="D16">
-        <v>8.872703586929733</v>
+        <v>13.12054906279079</v>
       </c>
       <c r="E16">
-        <v>7.470215621515691</v>
+        <v>13.16227796416099</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.084102751210001</v>
+        <v>3.689242674947526</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.52469296114506</v>
+        <v>28.23570870880697</v>
       </c>
       <c r="J16">
-        <v>5.325988886927322</v>
+        <v>8.208285239200647</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.20604252799377</v>
+        <v>12.62857400134535</v>
       </c>
       <c r="M16">
-        <v>15.18426536487794</v>
+        <v>18.63713389066463</v>
       </c>
       <c r="N16">
-        <v>12.28593955558971</v>
+        <v>19.68117333122081</v>
       </c>
       <c r="O16">
-        <v>21.09726306889076</v>
+        <v>30.40413393436908</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.72886794864376</v>
+        <v>19.93927332363981</v>
       </c>
       <c r="C17">
-        <v>13.60104496931468</v>
+        <v>8.075885770824385</v>
       </c>
       <c r="D17">
-        <v>8.809558865892724</v>
+        <v>13.12236829918606</v>
       </c>
       <c r="E17">
-        <v>7.495895122145249</v>
+        <v>13.17403333667958</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.086765350619542</v>
+        <v>3.690177412223603</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.5194503953168</v>
+        <v>28.26928803537751</v>
       </c>
       <c r="J17">
-        <v>5.31520624058426</v>
+        <v>8.206035137093586</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.148503620831217</v>
+        <v>12.6283016482237</v>
       </c>
       <c r="M17">
-        <v>14.95951928574398</v>
+        <v>18.60124493884834</v>
       </c>
       <c r="N17">
-        <v>12.37617716132986</v>
+        <v>19.7060651759576</v>
       </c>
       <c r="O17">
-        <v>20.95843306565807</v>
+        <v>30.41878771665051</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.42761808328236</v>
+        <v>19.85205808242076</v>
       </c>
       <c r="C18">
-        <v>13.44474182722185</v>
+        <v>7.994631456177827</v>
       </c>
       <c r="D18">
-        <v>8.773629779530921</v>
+        <v>13.123625625445</v>
       </c>
       <c r="E18">
-        <v>7.510892543100297</v>
+        <v>13.18090642202751</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.088305868481714</v>
+        <v>3.690722614052035</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.51830093530737</v>
+        <v>28.28912619949577</v>
       </c>
       <c r="J18">
-        <v>5.309014025710381</v>
+        <v>8.204738081503175</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.115623161872017</v>
+        <v>12.62830124278915</v>
       </c>
       <c r="M18">
-        <v>14.82933320772405</v>
+        <v>18.58082358820969</v>
       </c>
       <c r="N18">
-        <v>12.42830686529861</v>
+        <v>19.72056112013209</v>
       </c>
       <c r="O18">
-        <v>20.88039909201679</v>
+        <v>30.42785791230709</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.32485497710602</v>
+        <v>19.82249003518625</v>
       </c>
       <c r="C19">
-        <v>13.3914475694869</v>
+        <v>7.966910188362789</v>
       </c>
       <c r="D19">
-        <v>8.761532095229093</v>
+        <v>13.12408758589008</v>
       </c>
       <c r="E19">
-        <v>7.516009241269813</v>
+        <v>13.18325273317935</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.088829050029938</v>
+        <v>3.690908511236206</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.51822666985364</v>
+        <v>28.29593303673725</v>
       </c>
       <c r="J19">
-        <v>5.306919011921345</v>
+        <v>8.204298431811436</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.104527681106276</v>
+        <v>12.62832797450131</v>
       </c>
       <c r="M19">
-        <v>14.78509963984394</v>
+        <v>18.57394764418494</v>
       </c>
       <c r="N19">
-        <v>12.4459969067414</v>
+        <v>19.72549994618075</v>
       </c>
       <c r="O19">
-        <v>20.85428830833446</v>
+        <v>30.43103908336146</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.78425966973906</v>
+        <v>19.95539593853949</v>
       </c>
       <c r="C20">
-        <v>13.62979628761532</v>
+        <v>8.090824250375283</v>
       </c>
       <c r="D20">
-        <v>8.816240425329068</v>
+        <v>13.12215281086936</v>
       </c>
       <c r="E20">
-        <v>7.493137927356178</v>
+        <v>13.1727704000792</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.086480982335827</v>
+        <v>3.690077125254367</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.51981403676488</v>
+        <v>28.26565918923346</v>
       </c>
       <c r="J20">
-        <v>5.31635304640851</v>
+        <v>8.206274960318007</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.154606653650635</v>
+        <v>12.62831447801316</v>
       </c>
       <c r="M20">
-        <v>14.9835395793194</v>
+        <v>18.60504260229523</v>
       </c>
       <c r="N20">
-        <v>12.36654785845246</v>
+        <v>19.70339689884678</v>
       </c>
       <c r="O20">
-        <v>20.9730232036674</v>
+        <v>30.4171613663846</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.27491416465622</v>
+        <v>20.39885029438905</v>
       </c>
       <c r="C21">
-        <v>14.40478901961141</v>
+        <v>8.492473538669326</v>
       </c>
       <c r="D21">
-        <v>9.004692568536266</v>
+        <v>13.11817096592599</v>
       </c>
       <c r="E21">
-        <v>7.419024289933483</v>
+        <v>13.13888459347999</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.078697584700948</v>
+        <v>3.687374042695578</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.54785521919301</v>
+        <v>28.17021097121572</v>
       </c>
       <c r="J21">
-        <v>5.34817335650514</v>
+        <v>8.212881575946097</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.325394163414588</v>
+        <v>12.63013333181839</v>
       </c>
       <c r="M21">
-        <v>15.63910554985773</v>
+        <v>18.71212715934236</v>
       </c>
       <c r="N21">
-        <v>12.10226985462588</v>
+        <v>19.63126739485758</v>
       </c>
       <c r="O21">
-        <v>21.39381048415764</v>
+        <v>30.37820535530926</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.21014925790377</v>
+        <v>20.68589439044951</v>
       </c>
       <c r="C22">
-        <v>14.89218357271203</v>
+        <v>8.743948807370366</v>
       </c>
       <c r="D22">
-        <v>9.131268326786765</v>
+        <v>13.11744180311583</v>
       </c>
       <c r="E22">
-        <v>7.37265960056052</v>
+        <v>13.11772922963368</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.073683723635295</v>
+        <v>3.685674392192858</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.58405772846919</v>
+        <v>28.11251156106396</v>
       </c>
       <c r="J22">
-        <v>5.369079743466506</v>
+        <v>8.2171735734247</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.438826907631341</v>
+        <v>12.6327053927427</v>
       </c>
       <c r="M22">
-        <v>16.0588214387225</v>
+        <v>18.78398654710775</v>
       </c>
       <c r="N22">
-        <v>11.93139848923522</v>
+        <v>19.585710692892</v>
       </c>
       <c r="O22">
-        <v>21.68542228135844</v>
+        <v>30.35847108605423</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.71453655696121</v>
+        <v>20.53297757311235</v>
       </c>
       <c r="C23">
-        <v>14.63379008996814</v>
+        <v>8.61074512586832</v>
       </c>
       <c r="D23">
-        <v>9.063403171531755</v>
+        <v>13.11765985497339</v>
       </c>
       <c r="E23">
-        <v>7.397213085495494</v>
+        <v>13.12892975221495</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.076353419392186</v>
+        <v>3.686575419205951</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.56303849842006</v>
+        <v>28.14287782089177</v>
       </c>
       <c r="J23">
-        <v>5.357910321689084</v>
+        <v>8.214885233283816</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.378124172289962</v>
+        <v>12.63120646537094</v>
       </c>
       <c r="M23">
-        <v>15.83563406547493</v>
+        <v>18.74546709047811</v>
       </c>
       <c r="N23">
-        <v>12.02243523469955</v>
+        <v>19.60988061145649</v>
       </c>
       <c r="O23">
-        <v>21.52824464314202</v>
+        <v>30.36847926630844</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.75923132971738</v>
+        <v>19.94810777031021</v>
       </c>
       <c r="C24">
-        <v>13.61680478295217</v>
+        <v>8.084074493485703</v>
       </c>
       <c r="D24">
-        <v>8.813218527743073</v>
+        <v>13.12224957452952</v>
       </c>
       <c r="E24">
-        <v>7.494383726991261</v>
+        <v>13.17334101619413</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.086609514773015</v>
+        <v>3.690122440664175</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.51964384067521</v>
+        <v>28.2672981305357</v>
       </c>
       <c r="J24">
-        <v>5.315834554343951</v>
+        <v>8.206166546957959</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.151846850245537</v>
+        <v>12.62830819110999</v>
       </c>
       <c r="M24">
-        <v>14.97268303971409</v>
+        <v>18.60332501820892</v>
       </c>
       <c r="N24">
-        <v>12.37090048286098</v>
+        <v>19.7046026496428</v>
       </c>
       <c r="O24">
-        <v>20.96642145882475</v>
+        <v>30.41789462860909</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.57965022305498</v>
+        <v>19.30843287710019</v>
       </c>
       <c r="C25">
-        <v>12.43696640321073</v>
+        <v>7.469217447136494</v>
       </c>
       <c r="D25">
-        <v>8.558305810192548</v>
+        <v>13.13526704342888</v>
       </c>
       <c r="E25">
-        <v>7.607864913223645</v>
+        <v>13.2255188971444</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.098022649712322</v>
+        <v>3.694237979787997</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.5434580111487</v>
+        <v>28.42153966514568</v>
       </c>
       <c r="J25">
-        <v>5.270807961874658</v>
+        <v>8.196653001341481</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.916032656941169</v>
+        <v>12.63115924473088</v>
       </c>
       <c r="M25">
-        <v>14.00725383064264</v>
+        <v>18.45850293998463</v>
       </c>
       <c r="N25">
-        <v>12.75556656639762</v>
+        <v>19.8136173880764</v>
       </c>
       <c r="O25">
-        <v>20.42958951236908</v>
+        <v>30.4957209458947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_120/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.83343114763041</v>
+        <v>19.87935821216034</v>
       </c>
       <c r="C2">
-        <v>6.977096061341165</v>
+        <v>11.49633652207539</v>
       </c>
       <c r="D2">
-        <v>13.15180704825282</v>
+        <v>8.383755795892437</v>
       </c>
       <c r="E2">
-        <v>13.26763969818576</v>
+        <v>7.698668745779125</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.697519966356513</v>
+        <v>2.106766205017937</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.55227858295811</v>
+        <v>17.61510325123911</v>
       </c>
       <c r="J2">
-        <v>8.189554730806986</v>
+        <v>5.237845832942988</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.63843372616258</v>
+        <v>7.750030196007067</v>
       </c>
       <c r="M2">
-        <v>18.35963301309227</v>
+        <v>13.27062415529302</v>
       </c>
       <c r="N2">
-        <v>19.89982915868515</v>
+        <v>13.04730394855114</v>
       </c>
       <c r="O2">
-        <v>30.57403029773107</v>
+        <v>20.09111199097076</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.51092996293036</v>
+        <v>18.65110403671882</v>
       </c>
       <c r="C3">
-        <v>6.61960954460661</v>
+        <v>10.8139643158967</v>
       </c>
       <c r="D3">
-        <v>13.16736052531826</v>
+        <v>8.273780313749841</v>
       </c>
       <c r="E3">
-        <v>13.29850883145722</v>
+        <v>7.764643269420655</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.699902617033609</v>
+        <v>2.112921732687946</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.65156297293163</v>
+        <v>17.69418772989859</v>
       </c>
       <c r="J3">
-        <v>8.184686054880942</v>
+        <v>5.215574665490259</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.6466073225927</v>
+        <v>7.642559608724972</v>
       </c>
       <c r="M3">
-        <v>18.2976834503562</v>
+        <v>12.75794577798493</v>
       </c>
       <c r="N3">
-        <v>19.96199452755652</v>
+        <v>13.25077436347826</v>
       </c>
       <c r="O3">
-        <v>30.6401517173179</v>
+        <v>19.89556538347995</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.31329158645985</v>
+        <v>17.86024781604781</v>
       </c>
       <c r="C4">
-        <v>6.388569354170738</v>
+        <v>10.37293983153025</v>
       </c>
       <c r="D4">
-        <v>13.17905421553124</v>
+        <v>8.210386201536588</v>
       </c>
       <c r="E4">
-        <v>13.31861325287</v>
+        <v>7.807315736879189</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.701444170316042</v>
+        <v>2.116820117101321</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.71778242412224</v>
+        <v>17.75677074566905</v>
       </c>
       <c r="J4">
-        <v>8.18166812583511</v>
+        <v>5.201918367376273</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.65323051135943</v>
+        <v>7.57914338057896</v>
       </c>
       <c r="M4">
-        <v>18.26220719989518</v>
+        <v>12.43760003286131</v>
       </c>
       <c r="N4">
-        <v>20.00201850220244</v>
+        <v>13.37868645788546</v>
       </c>
       <c r="O4">
-        <v>30.68716754912372</v>
+        <v>19.79159098343154</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23295099683034</v>
+        <v>17.52890024632835</v>
       </c>
       <c r="C5">
-        <v>6.291569463587981</v>
+        <v>10.18770651386055</v>
       </c>
       <c r="D5">
-        <v>13.18435869668625</v>
+        <v>8.185594266168007</v>
       </c>
       <c r="E5">
-        <v>13.32709594916721</v>
+        <v>7.825245907004969</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.702092193282865</v>
+        <v>2.118439385282477</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.74608808264416</v>
+        <v>17.78565114313825</v>
       </c>
       <c r="J5">
-        <v>8.180431156597766</v>
+        <v>5.1963559333844</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.65633370229695</v>
+        <v>7.553960519587459</v>
       </c>
       <c r="M5">
-        <v>18.24840428268873</v>
+        <v>12.30584388492411</v>
       </c>
       <c r="N5">
-        <v>20.01879621296351</v>
+        <v>13.43158073240693</v>
       </c>
       <c r="O5">
-        <v>30.70793735907537</v>
+        <v>19.75317008663349</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21962554425965</v>
+        <v>17.47333829692924</v>
       </c>
       <c r="C6">
-        <v>6.275292392479128</v>
+        <v>10.1566169520048</v>
       </c>
       <c r="D6">
-        <v>13.18527207027461</v>
+        <v>8.18154053523042</v>
       </c>
       <c r="E6">
-        <v>13.32852202750157</v>
+        <v>7.828255770641951</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.702200996412865</v>
+        <v>2.11871013583976</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.75086793596123</v>
+        <v>17.79064641150145</v>
       </c>
       <c r="J6">
-        <v>8.180225328751961</v>
+        <v>5.195432398217246</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.65687341589309</v>
+        <v>7.549819137277848</v>
       </c>
       <c r="M6">
-        <v>18.2461520940109</v>
+        <v>12.28389844307549</v>
       </c>
       <c r="N6">
-        <v>20.02161042218464</v>
+        <v>13.44041079701582</v>
       </c>
       <c r="O6">
-        <v>30.71148334162839</v>
+        <v>19.74702586229061</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.31220714341778</v>
+        <v>17.85581561007043</v>
       </c>
       <c r="C7">
-        <v>6.38727263761006</v>
+        <v>10.37046397680665</v>
       </c>
       <c r="D7">
-        <v>13.17912357028911</v>
+        <v>8.210047629080558</v>
       </c>
       <c r="E7">
-        <v>13.31872647849835</v>
+        <v>7.807555363872054</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.701452829414943</v>
+        <v>2.116841830063784</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.71815881881603</v>
+        <v>17.75714675625487</v>
       </c>
       <c r="J7">
-        <v>8.181651472488552</v>
+        <v>5.201843342366841</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.65327072466063</v>
+        <v>7.578801067671528</v>
       </c>
       <c r="M7">
-        <v>18.26201838846197</v>
+        <v>12.43582777377168</v>
       </c>
       <c r="N7">
-        <v>20.00224287711166</v>
+        <v>13.3793966691859</v>
       </c>
       <c r="O7">
-        <v>30.68744114168086</v>
+        <v>19.79105696881611</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.72221582471442</v>
+        <v>19.46355674843203</v>
       </c>
       <c r="C8">
-        <v>6.856258970959401</v>
+        <v>11.26564413154827</v>
       </c>
       <c r="D8">
-        <v>13.15672505345237</v>
+        <v>8.344981172517839</v>
       </c>
       <c r="E8">
-        <v>13.27804494428261</v>
+        <v>7.720965544848271</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.698325230170232</v>
+        <v>2.108864426603543</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.58541950786331</v>
+        <v>17.63936953068781</v>
       </c>
       <c r="J8">
-        <v>8.187881957567496</v>
+        <v>5.230161697909157</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.64091939799592</v>
+        <v>7.712448929727474</v>
       </c>
       <c r="M8">
-        <v>18.3377474100549</v>
+        <v>13.09511128504153</v>
       </c>
       <c r="N8">
-        <v>19.92087976539213</v>
+        <v>13.11685398172977</v>
       </c>
       <c r="O8">
-        <v>30.59549531301657</v>
+        <v>20.02029198196352</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.52477817567895</v>
+        <v>22.32022657647991</v>
       </c>
       <c r="C9">
-        <v>7.682519224576851</v>
+        <v>12.84554124823815</v>
       </c>
       <c r="D9">
-        <v>13.12980263299086</v>
+        <v>8.642150765232079</v>
       </c>
       <c r="E9">
-        <v>13.20736938394323</v>
+        <v>7.568500069508692</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.692812732967951</v>
+        <v>2.094127764025389</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.36691174251039</v>
+        <v>17.52659317151599</v>
       </c>
       <c r="J9">
-        <v>8.199872202923718</v>
+        <v>5.285938263436395</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.62939713319671</v>
+        <v>7.994318589062662</v>
       </c>
       <c r="M9">
-        <v>18.50611025902711</v>
+        <v>14.33676909513837</v>
       </c>
       <c r="N9">
-        <v>19.77597618335007</v>
+        <v>12.62473095233526</v>
       </c>
       <c r="O9">
-        <v>30.46623559705564</v>
+        <v>20.6014077124455</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.10770696436656</v>
+        <v>24.30318450580251</v>
       </c>
       <c r="C10">
-        <v>8.230733827700053</v>
+        <v>13.89931405955559</v>
       </c>
       <c r="D10">
-        <v>13.12037004322059</v>
+        <v>8.879961477376913</v>
       </c>
       <c r="E10">
-        <v>13.16095171797371</v>
+        <v>7.467316362820912</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.689137038720172</v>
+        <v>2.083800132775407</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.2319481538627</v>
+        <v>17.52554827107416</v>
       </c>
       <c r="J10">
-        <v>8.208541603207566</v>
+        <v>5.327220650133221</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.62862622417773</v>
+        <v>8.212636827122656</v>
       </c>
       <c r="M10">
-        <v>18.64125870159048</v>
+        <v>15.20978394007657</v>
       </c>
       <c r="N10">
-        <v>19.67835720013046</v>
+        <v>12.27567304745401</v>
       </c>
       <c r="O10">
-        <v>30.40254883499279</v>
+        <v>21.11335227017197</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.37026737081575</v>
+        <v>25.18060356206706</v>
       </c>
       <c r="C11">
-        <v>8.467088343658686</v>
+        <v>14.35568749295425</v>
       </c>
       <c r="D11">
-        <v>13.11831971549927</v>
+        <v>8.992281366703601</v>
       </c>
       <c r="E11">
-        <v>13.14102252982238</v>
+        <v>7.423706749969323</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.687545289093014</v>
+        <v>2.079197556955418</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.17612323030873</v>
+        <v>17.54501617841996</v>
       </c>
       <c r="J11">
-        <v>8.212454974764297</v>
+        <v>5.346105426756996</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.62993471563773</v>
+        <v>8.31422025726572</v>
       </c>
       <c r="M11">
-        <v>18.70507753167107</v>
+        <v>15.5971270089053</v>
       </c>
       <c r="N11">
-        <v>19.63584882996004</v>
+        <v>12.11928409342862</v>
       </c>
       <c r="O11">
-        <v>30.38039608368004</v>
+        <v>21.36558276843557</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.46922342627746</v>
+        <v>25.50616607884703</v>
       </c>
       <c r="C12">
-        <v>8.554699926230201</v>
+        <v>14.52522510191716</v>
       </c>
       <c r="D12">
-        <v>13.11786474904628</v>
+        <v>9.035400371865594</v>
       </c>
       <c r="E12">
-        <v>13.13364583551739</v>
+        <v>7.407547692877531</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.686954022290878</v>
+        <v>2.07746729045886</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.15578656504951</v>
+        <v>17.55544008002355</v>
       </c>
       <c r="J12">
-        <v>8.213932460474025</v>
+        <v>5.353275230876125</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.6306676447977</v>
+        <v>8.352999746190505</v>
       </c>
       <c r="M12">
-        <v>18.72956690025342</v>
+        <v>15.74231164138466</v>
       </c>
       <c r="N12">
-        <v>19.62002369939533</v>
+        <v>12.06038247876751</v>
       </c>
       <c r="O12">
-        <v>30.3729895527885</v>
+        <v>21.46394082775961</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.44793380905476</v>
+        <v>25.43634687766648</v>
       </c>
       <c r="C13">
-        <v>8.535915521010178</v>
+        <v>14.48885759242737</v>
       </c>
       <c r="D13">
-        <v>13.11794845107326</v>
+        <v>9.026088004288045</v>
       </c>
       <c r="E13">
-        <v>13.13522698401924</v>
+        <v>7.411011926727616</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.687080851899096</v>
+        <v>2.077839391101817</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.16013068417341</v>
+        <v>17.5530564111049</v>
       </c>
       <c r="J13">
-        <v>8.213614455091065</v>
+        <v>5.351730201941354</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.63049925491093</v>
+        <v>8.344634224541601</v>
       </c>
       <c r="M13">
-        <v>18.72427855490248</v>
+        <v>15.71111114154299</v>
       </c>
       <c r="N13">
-        <v>19.62341985210523</v>
+        <v>12.0730542041687</v>
       </c>
       <c r="O13">
-        <v>30.37454097338571</v>
+        <v>21.44263022446723</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.37841848205073</v>
+        <v>25.20752152447348</v>
       </c>
       <c r="C14">
-        <v>8.474334176693082</v>
+        <v>14.36970104160925</v>
       </c>
       <c r="D14">
-        <v>13.11827584760024</v>
+        <v>8.995817101437147</v>
       </c>
       <c r="E14">
-        <v>13.14041223968901</v>
+        <v>7.42237017732256</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.687496415191259</v>
+        <v>2.079054960406125</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.1744340157108</v>
+        <v>17.54581153037887</v>
       </c>
       <c r="J14">
-        <v>8.212576617365704</v>
+        <v>5.34669489822238</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.62999026261518</v>
+        <v>8.317404492491315</v>
       </c>
       <c r="M14">
-        <v>18.70708590273969</v>
+        <v>15.60910179983209</v>
       </c>
       <c r="N14">
-        <v>19.63454144518546</v>
+        <v>12.11443196920828</v>
       </c>
       <c r="O14">
-        <v>30.37976705002763</v>
+        <v>21.3736174062756</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.33577444491506</v>
+        <v>25.0664897166732</v>
       </c>
       <c r="C15">
-        <v>8.436367164121915</v>
+        <v>14.29628779173838</v>
       </c>
       <c r="D15">
-        <v>13.11851822495736</v>
+        <v>8.977351337678758</v>
       </c>
       <c r="E15">
-        <v>13.14361048865205</v>
+        <v>7.429373883446716</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.687752454856486</v>
+        <v>2.079801142190302</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.18329985425577</v>
+        <v>17.54177678674464</v>
       </c>
       <c r="J15">
-        <v>8.211940334131063</v>
+        <v>5.343613152599732</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.62970937492333</v>
+        <v>8.300765730977318</v>
       </c>
       <c r="M15">
-        <v>18.69659649691399</v>
+        <v>15.54642136691076</v>
       </c>
       <c r="N15">
-        <v>19.64138911160795</v>
+        <v>12.13981787581566</v>
       </c>
       <c r="O15">
-        <v>30.38309613317479</v>
+        <v>21.33171720062315</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.09048726690601</v>
+        <v>24.2449014582728</v>
       </c>
       <c r="C16">
-        <v>8.215023745175031</v>
+        <v>13.8690282944002</v>
       </c>
       <c r="D16">
-        <v>13.12054906279079</v>
+        <v>8.872703586929592</v>
       </c>
       <c r="E16">
-        <v>13.16227796416099</v>
+        <v>7.470215621515758</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.689242674947526</v>
+        <v>2.084102751209601</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.23570870880697</v>
+        <v>17.52469296114521</v>
       </c>
       <c r="J16">
-        <v>8.208285239200647</v>
+        <v>5.325988886927449</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.62857400134535</v>
+        <v>8.206042527993803</v>
       </c>
       <c r="M16">
-        <v>18.63713389066463</v>
+        <v>15.18426536487799</v>
       </c>
       <c r="N16">
-        <v>19.68117333122081</v>
+        <v>12.28593955558974</v>
       </c>
       <c r="O16">
-        <v>30.40413393436908</v>
+        <v>21.0972630688909</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.93927332363981</v>
+        <v>23.7288679486438</v>
       </c>
       <c r="C17">
-        <v>8.075885770824385</v>
+        <v>13.60104496931458</v>
       </c>
       <c r="D17">
-        <v>13.12236829918606</v>
+        <v>8.809558865892731</v>
       </c>
       <c r="E17">
-        <v>13.17403333667958</v>
+        <v>7.495895122145186</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.690177412223603</v>
+        <v>2.086765350619408</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.26928803537751</v>
+        <v>17.51945039531674</v>
       </c>
       <c r="J17">
-        <v>8.206035137093586</v>
+        <v>5.315206240584295</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.6283016482237</v>
+        <v>8.148503620831276</v>
       </c>
       <c r="M17">
-        <v>18.60124493884834</v>
+        <v>14.95951928574397</v>
       </c>
       <c r="N17">
-        <v>19.7060651759576</v>
+        <v>12.37617716132983</v>
       </c>
       <c r="O17">
-        <v>30.41878771665051</v>
+        <v>20.95843306565806</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.85205808242076</v>
+        <v>23.42761808328243</v>
       </c>
       <c r="C18">
-        <v>7.994631456177827</v>
+        <v>13.4447418272219</v>
       </c>
       <c r="D18">
-        <v>13.123625625445</v>
+        <v>8.773629779530999</v>
       </c>
       <c r="E18">
-        <v>13.18090642202751</v>
+        <v>7.510892543100233</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.690722614052035</v>
+        <v>2.08830586848185</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.28912619949577</v>
+        <v>17.51830093530727</v>
       </c>
       <c r="J18">
-        <v>8.204738081503175</v>
+        <v>5.309014025710317</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.62830124278915</v>
+        <v>8.115623161871991</v>
       </c>
       <c r="M18">
-        <v>18.58082358820969</v>
+        <v>14.829333207724</v>
       </c>
       <c r="N18">
-        <v>19.72056112013209</v>
+        <v>12.4283068652986</v>
       </c>
       <c r="O18">
-        <v>30.42785791230709</v>
+        <v>20.88039909201669</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.82249003518625</v>
+        <v>23.32485497710606</v>
       </c>
       <c r="C19">
-        <v>7.966910188362789</v>
+        <v>13.39144756948683</v>
       </c>
       <c r="D19">
-        <v>13.12408758589008</v>
+        <v>8.761532095229136</v>
       </c>
       <c r="E19">
-        <v>13.18325273317935</v>
+        <v>7.516009241269813</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.690908511236206</v>
+        <v>2.088829050029802</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.29593303673725</v>
+        <v>17.51822666985365</v>
       </c>
       <c r="J19">
-        <v>8.204298431811436</v>
+        <v>5.306919011921345</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.62832797450131</v>
+        <v>8.104527681106278</v>
       </c>
       <c r="M19">
-        <v>18.57394764418494</v>
+        <v>14.78509963984394</v>
       </c>
       <c r="N19">
-        <v>19.72549994618075</v>
+        <v>12.44599690674139</v>
       </c>
       <c r="O19">
-        <v>30.43103908336146</v>
+        <v>20.85428830833447</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.95539593853949</v>
+        <v>23.78425966973907</v>
       </c>
       <c r="C20">
-        <v>8.090824250375283</v>
+        <v>13.62979628761522</v>
       </c>
       <c r="D20">
-        <v>13.12215281086936</v>
+        <v>8.816240425329047</v>
       </c>
       <c r="E20">
-        <v>13.1727704000792</v>
+        <v>7.49313792735624</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.690077125254367</v>
+        <v>2.086480982335827</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.26565918923346</v>
+        <v>17.519814036765</v>
       </c>
       <c r="J20">
-        <v>8.206274960318007</v>
+        <v>5.316353046408544</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.62831447801316</v>
+        <v>8.154606653650671</v>
       </c>
       <c r="M20">
-        <v>18.60504260229523</v>
+        <v>14.98353957931944</v>
       </c>
       <c r="N20">
-        <v>19.70339689884678</v>
+        <v>12.3665478584525</v>
       </c>
       <c r="O20">
-        <v>30.4171613663846</v>
+        <v>20.97302320366751</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.39885029438905</v>
+        <v>25.27491416465624</v>
       </c>
       <c r="C21">
-        <v>8.492473538669326</v>
+        <v>14.40478901961145</v>
       </c>
       <c r="D21">
-        <v>13.11817096592599</v>
+        <v>9.004692568536274</v>
       </c>
       <c r="E21">
-        <v>13.13888459347999</v>
+        <v>7.419024289933551</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.687374042695578</v>
+        <v>2.078697584700811</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.17021097121572</v>
+        <v>17.54785521919303</v>
       </c>
       <c r="J21">
-        <v>8.212881575946097</v>
+        <v>5.348173356505172</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.63013333181839</v>
+        <v>8.32539416341459</v>
       </c>
       <c r="M21">
-        <v>18.71212715934236</v>
+        <v>15.63910554985775</v>
       </c>
       <c r="N21">
-        <v>19.63126739485758</v>
+        <v>12.10226985462588</v>
       </c>
       <c r="O21">
-        <v>30.37820535530926</v>
+        <v>21.39381048415766</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.68589439044951</v>
+        <v>26.21014925790383</v>
       </c>
       <c r="C22">
-        <v>8.743948807370366</v>
+        <v>14.89218357271211</v>
       </c>
       <c r="D22">
-        <v>13.11744180311583</v>
+        <v>9.131268326786829</v>
       </c>
       <c r="E22">
-        <v>13.11772922963368</v>
+        <v>7.372659600560577</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.685674392192858</v>
+        <v>2.073683723635563</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.11251156106396</v>
+        <v>17.58405772846913</v>
       </c>
       <c r="J22">
-        <v>8.2171735734247</v>
+        <v>5.369079743466509</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.6327053927427</v>
+        <v>8.438826907631338</v>
       </c>
       <c r="M22">
-        <v>18.78398654710775</v>
+        <v>16.05882143872249</v>
       </c>
       <c r="N22">
-        <v>19.585710692892</v>
+        <v>11.93139848923518</v>
       </c>
       <c r="O22">
-        <v>30.35847108605423</v>
+        <v>21.68542228135838</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.53297757311235</v>
+        <v>25.71453655696123</v>
       </c>
       <c r="C23">
-        <v>8.61074512586832</v>
+        <v>14.63379008996816</v>
       </c>
       <c r="D23">
-        <v>13.11765985497339</v>
+        <v>9.063403171531819</v>
       </c>
       <c r="E23">
-        <v>13.12892975221495</v>
+        <v>7.397213085495373</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.686575419205951</v>
+        <v>2.076353419392454</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.14287782089177</v>
+        <v>17.56303849842006</v>
       </c>
       <c r="J23">
-        <v>8.214885233283816</v>
+        <v>5.357910321688926</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.63120646537094</v>
+        <v>8.37812417228989</v>
       </c>
       <c r="M23">
-        <v>18.74546709047811</v>
+        <v>15.83563406547492</v>
       </c>
       <c r="N23">
-        <v>19.60988061145649</v>
+        <v>12.02243523469944</v>
       </c>
       <c r="O23">
-        <v>30.36847926630844</v>
+        <v>21.52824464314203</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.94810777031021</v>
+        <v>23.7592313297174</v>
       </c>
       <c r="C24">
-        <v>8.084074493485703</v>
+        <v>13.6168047829522</v>
       </c>
       <c r="D24">
-        <v>13.12224957452952</v>
+        <v>8.813218527743073</v>
       </c>
       <c r="E24">
-        <v>13.17334101619413</v>
+        <v>7.494383726991385</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.690122440664175</v>
+        <v>2.086609514773146</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.2672981305357</v>
+        <v>17.51964384067516</v>
       </c>
       <c r="J24">
-        <v>8.206166546957959</v>
+        <v>5.31583455434405</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.62830819110999</v>
+        <v>8.151846850245553</v>
       </c>
       <c r="M24">
-        <v>18.60332501820892</v>
+        <v>14.97268303971408</v>
       </c>
       <c r="N24">
-        <v>19.7046026496428</v>
+        <v>12.37090048286098</v>
       </c>
       <c r="O24">
-        <v>30.41789462860909</v>
+        <v>20.96642145882467</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.30843287710019</v>
+        <v>21.57965022305499</v>
       </c>
       <c r="C25">
-        <v>7.469217447136494</v>
+        <v>12.43696640321059</v>
       </c>
       <c r="D25">
-        <v>13.13526704342888</v>
+        <v>8.558305810192641</v>
       </c>
       <c r="E25">
-        <v>13.2255188971444</v>
+        <v>7.60786491322365</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.694237979787997</v>
+        <v>2.098022649712459</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.42153966514568</v>
+        <v>17.54345801114884</v>
       </c>
       <c r="J25">
-        <v>8.196653001341481</v>
+        <v>5.270807961874692</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.63115924473088</v>
+        <v>7.91603265694126</v>
       </c>
       <c r="M25">
-        <v>18.45850293998463</v>
+        <v>14.0072538306427</v>
       </c>
       <c r="N25">
-        <v>19.8136173880764</v>
+        <v>12.75556656639765</v>
       </c>
       <c r="O25">
-        <v>30.4957209458947</v>
+        <v>20.42958951236922</v>
       </c>
     </row>
   </sheetData>
